--- a/data/trans_dic/POLIPATOLOGIA_Lim_2-Dificultad-trans_dic.xlsx
+++ b/data/trans_dic/POLIPATOLOGIA_Lim_2-Dificultad-trans_dic.xlsx
@@ -646,7 +646,7 @@
         <v>0.1757712397502172</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>0.2977790962614053</v>
+        <v>0.2977790962614052</v>
       </c>
       <c r="F4" s="5" t="n">
         <v>0.3429456524576369</v>
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.1471703500539057</v>
+        <v>0.1456727294678405</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.1535213063301309</v>
+        <v>0.1563081683927461</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.2569864023853922</v>
+        <v>0.255556385005825</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.3155569178176267</v>
+        <v>0.3141335495970913</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.2998072206391038</v>
+        <v>0.2983042358884637</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.4017953309540713</v>
+        <v>0.3991477371997978</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.2396396090099976</v>
+        <v>0.2395608974570211</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.2369003250924267</v>
+        <v>0.2381285530057381</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.347869259043657</v>
+        <v>0.3510776671807616</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.1950415294977583</v>
+        <v>0.1946816823256919</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.1988069210248508</v>
+        <v>0.2010655926613145</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.3404352834284565</v>
+        <v>0.3420700797851398</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.3727525337743624</v>
+        <v>0.3723584505834273</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.3558779346005423</v>
+        <v>0.3539224073048539</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.4704364166106045</v>
+        <v>0.4695549048799493</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.2784385613400913</v>
+        <v>0.2779624306491357</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.2747562812880638</v>
+        <v>0.2724210823260588</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.4042668655004582</v>
+        <v>0.4056828503186543</v>
       </c>
     </row>
     <row r="7">
@@ -764,7 +764,7 @@
         <v>0.24079292264812</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>0.3380349757143318</v>
+        <v>0.3380349757143317</v>
       </c>
       <c r="I7" s="5" t="n">
         <v>0.2369967076609484</v>
@@ -784,31 +784,31 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.1548341059073527</v>
+        <v>0.1536787520259395</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.1256115246713383</v>
+        <v>0.126343282753853</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.1577251430616676</v>
+        <v>0.1558487943366514</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.2610664344700934</v>
+        <v>0.2610421196162969</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.2129339309738789</v>
+        <v>0.2168272581443743</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.3155040554176788</v>
+        <v>0.3147717682015846</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.2163696738328518</v>
+        <v>0.2186549739401218</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.1792851295861165</v>
+        <v>0.1770460891086521</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.2484633499660246</v>
+        <v>0.2482394516112107</v>
       </c>
     </row>
     <row r="9">
@@ -819,31 +819,31 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.2071122194185769</v>
+        <v>0.2063371082781301</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.1705300590655908</v>
+        <v>0.1731936088206982</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.2066920127875626</v>
+        <v>0.2070865018869616</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.3179343597479733</v>
+        <v>0.3160808592776561</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.2695702304442064</v>
+        <v>0.2691998031480008</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.3649045030134211</v>
+        <v>0.3646282420747293</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.2559479149025649</v>
+        <v>0.2546536254394964</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.2160006476285024</v>
+        <v>0.2135847770311085</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.2840199470728662</v>
+        <v>0.2845736888061761</v>
       </c>
     </row>
     <row r="10">
@@ -873,7 +873,7 @@
         <v>0.2171545763600562</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>0.2832851854424398</v>
+        <v>0.2832851854424397</v>
       </c>
       <c r="I10" s="5" t="n">
         <v>0.2218851835899784</v>
@@ -893,31 +893,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.1580287989084601</v>
+        <v>0.1574378090720233</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.1118700666218319</v>
+        <v>0.1129798967453869</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.1166595242798373</v>
+        <v>0.1160412378114268</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.2302021050950748</v>
+        <v>0.2299828022963041</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.1885468956295898</v>
+        <v>0.1902949265832095</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.2599565921660142</v>
+        <v>0.2610397001437806</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.2034384306676707</v>
+        <v>0.2025939404502815</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.1567585843203266</v>
+        <v>0.1564912444566526</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.192620562919393</v>
+        <v>0.1933396360770902</v>
       </c>
     </row>
     <row r="12">
@@ -928,31 +928,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.2113357400187596</v>
+        <v>0.2111097457895502</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.1592501251991499</v>
+        <v>0.1602781295292811</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.1573988481057596</v>
+        <v>0.154837712490814</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.2883894513412935</v>
+        <v>0.2881318621149838</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.2534966097091514</v>
+        <v>0.2530666318421171</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.3064029428853207</v>
+        <v>0.3085652381710284</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.2431517040346117</v>
+        <v>0.2430293972083635</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.1962156680674813</v>
+        <v>0.1936618183709665</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.2272139327433184</v>
+        <v>0.2265402269805307</v>
       </c>
     </row>
     <row r="13">
@@ -982,7 +982,7 @@
         <v>0.1707563455987051</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>0.2748918691328837</v>
+        <v>0.2748918691328838</v>
       </c>
       <c r="I13" s="5" t="n">
         <v>0.1742721454264316</v>
@@ -1002,31 +1002,31 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.09824792289309674</v>
+        <v>0.09985627842861947</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.09025303599601162</v>
+        <v>0.08918984837315011</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.1464878643947357</v>
+        <v>0.1476449674649465</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.1866840112644751</v>
+        <v>0.1893970584863863</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.1388467327814717</v>
+        <v>0.1384049474387332</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.2493835094331953</v>
+        <v>0.2483389129782106</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.1475308744378174</v>
+        <v>0.1504328336656822</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.1222246986666717</v>
+        <v>0.1216979867222582</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.2038619418834192</v>
+        <v>0.203266156673917</v>
       </c>
     </row>
     <row r="15">
@@ -1037,31 +1037,31 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.1603119775402903</v>
+        <v>0.1641923926676619</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.1474978964026606</v>
+        <v>0.1473274365233829</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.1959296795070059</v>
+        <v>0.1990323098964315</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.2662733735585804</v>
+        <v>0.2720212360940487</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.2099332032770085</v>
+        <v>0.2089491334724712</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.3026990457844905</v>
+        <v>0.3007369282060294</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.2003802822624845</v>
+        <v>0.2025998309807081</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.1677868176370759</v>
+        <v>0.1668109500806854</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.2404706957068334</v>
+        <v>0.2393787772694473</v>
       </c>
     </row>
     <row r="16">
@@ -1100,7 +1100,7 @@
         <v>0.2041842014904937</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>0.2545672907775961</v>
+        <v>0.2545672907775962</v>
       </c>
     </row>
     <row r="17">
@@ -1111,31 +1111,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.1561737327230662</v>
+        <v>0.1562927580757061</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.1382565278848191</v>
+        <v>0.1368067208105113</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.1697170392215538</v>
+        <v>0.16858588218744</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.2750499352282895</v>
+        <v>0.2751052805105657</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.2419096708984067</v>
+        <v>0.2422253935825648</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.3090877918289964</v>
+        <v>0.308777944663673</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.2207885572279374</v>
+        <v>0.2216252719256739</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.1934318243123352</v>
+        <v>0.1930325125298204</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.244372117526863</v>
+        <v>0.2461493665844524</v>
       </c>
     </row>
     <row r="18">
@@ -1146,31 +1146,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.1832912146140307</v>
+        <v>0.1833417985144207</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.1621729673442862</v>
+        <v>0.1616693858189776</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.1957508419987736</v>
+        <v>0.1946586650293336</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.305156109046467</v>
+        <v>0.306955196471478</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.272534898368697</v>
+        <v>0.2716052207894414</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.3368313506430172</v>
+        <v>0.3352595497625903</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.2422051333182394</v>
+        <v>0.2419857062341861</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.2145096169097871</v>
+        <v>0.2129253334662211</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.2636273287565862</v>
+        <v>0.2648200043300348</v>
       </c>
     </row>
     <row r="19">
@@ -1399,31 +1399,31 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>153636</v>
+        <v>152073</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>173172</v>
+        <v>176315</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>128169</v>
+        <v>127456</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>353401</v>
+        <v>351807</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>377625</v>
+        <v>375732</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>250552</v>
+        <v>248901</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>518547</v>
+        <v>518377</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>565613</v>
+        <v>568546</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>390421</v>
+        <v>394021</v>
       </c>
     </row>
     <row r="7">
@@ -1434,31 +1434,31 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>203611</v>
+        <v>203235</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>224254</v>
+        <v>226801</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>169788</v>
+        <v>170604</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>417456</v>
+        <v>417015</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>448250</v>
+        <v>445787</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>293355</v>
+        <v>292805</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>602503</v>
+        <v>601473</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>655997</v>
+        <v>650421</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>453717</v>
+        <v>455306</v>
       </c>
     </row>
     <row r="8">
@@ -1543,31 +1543,31 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>151284</v>
+        <v>150155</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>114159</v>
+        <v>114824</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>151438</v>
+        <v>149636</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>285675</v>
+        <v>285648</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>214313</v>
+        <v>218231</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>352055</v>
+        <v>351238</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>448174</v>
+        <v>452908</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>343385</v>
+        <v>339096</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>515806</v>
+        <v>515342</v>
       </c>
     </row>
     <row r="11">
@@ -1578,31 +1578,31 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>202364</v>
+        <v>201606</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>154982</v>
+        <v>157403</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>198453</v>
+        <v>198831</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>347903</v>
+        <v>345875</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>271316</v>
+        <v>270943</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>407178</v>
+        <v>406870</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>530154</v>
+        <v>527473</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>413706</v>
+        <v>409079</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>589621</v>
+        <v>590771</v>
       </c>
     </row>
     <row r="12">
@@ -1687,31 +1687,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>139874</v>
+        <v>139351</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>92154</v>
+        <v>93068</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>122082</v>
+        <v>121435</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>201610</v>
+        <v>201418</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>145381</v>
+        <v>146729</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>272341</v>
+        <v>273476</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>358237</v>
+        <v>356750</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>250001</v>
+        <v>249575</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>403371</v>
+        <v>404877</v>
       </c>
     </row>
     <row r="15">
@@ -1722,31 +1722,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>187056</v>
+        <v>186856</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>131184</v>
+        <v>132031</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>164715</v>
+        <v>162034</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>252570</v>
+        <v>252345</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>195461</v>
+        <v>195129</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>321001</v>
+        <v>323266</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>428169</v>
+        <v>427953</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>312928</v>
+        <v>308855</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>475813</v>
+        <v>474403</v>
       </c>
     </row>
     <row r="16">
@@ -1831,31 +1831,31 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>49421</v>
+        <v>50230</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>45731</v>
+        <v>45193</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>142962</v>
+        <v>144091</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>84519</v>
+        <v>85747</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>67993</v>
+        <v>67777</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>227025</v>
+        <v>226074</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>141004</v>
+        <v>143777</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>121784</v>
+        <v>121260</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>384539</v>
+        <v>383416</v>
       </c>
     </row>
     <row r="19">
@@ -1866,31 +1866,31 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>80641</v>
+        <v>82593</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>74737</v>
+        <v>74651</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>191213</v>
+        <v>194241</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>120552</v>
+        <v>123154</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>102804</v>
+        <v>102322</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>275561</v>
+        <v>273774</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>191515</v>
+        <v>193636</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>167182</v>
+        <v>166210</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>453594</v>
+        <v>451534</v>
       </c>
     </row>
     <row r="20">
@@ -1975,31 +1975,31 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>532419</v>
+        <v>532825</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>465549</v>
+        <v>460667</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>590833</v>
+        <v>586895</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>974425</v>
+        <v>974622</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>853165</v>
+        <v>854279</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>1142826</v>
+        <v>1141681</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>1534893</v>
+        <v>1540709</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>1333534</v>
+        <v>1330781</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>1754274</v>
+        <v>1767033</v>
       </c>
     </row>
     <row r="23">
@@ -2010,31 +2010,31 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>624866</v>
+        <v>625039</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>546082</v>
+        <v>544386</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>681464</v>
+        <v>677662</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>1081083</v>
+        <v>1087457</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>961174</v>
+        <v>957895</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>1245406</v>
+        <v>1239594</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>1683778</v>
+        <v>1682252</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>1478845</v>
+        <v>1467923</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>1892502</v>
+        <v>1901064</v>
       </c>
     </row>
     <row r="24">
